--- a/sofaplayer/Serie_A/Parma_stats.xlsx
+++ b/sofaplayer/Serie_A/Parma_stats.xlsx
@@ -1035,40 +1035,40 @@
         <v>1099296</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7333333333333</v>
+        <v>6.744</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>1961</v>
+        <v>2051</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>5.7406</v>
+        <v>6.5416</v>
       </c>
       <c r="L2" t="n">
-        <v>326.83333333333</v>
+        <v>293</v>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>12</v>
+        <v>12.962962962963</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -1080,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.75339221</v>
+        <v>0.7763120100000001</v>
       </c>
       <c r="AB2" t="n">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="AC2" t="n">
         <v>4</v>
@@ -1113,22 +1113,22 @@
         <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AF2" t="n">
-        <v>60.30303030303</v>
+        <v>60.99706744868</v>
       </c>
       <c r="AG2" t="n">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AH2" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AI2" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AJ2" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="n">
         <v>9</v>
@@ -1146,16 +1146,16 @@
         <v>3</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AS2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT2" t="n">
         <v>25</v>
@@ -1179,25 +1179,25 @@
         <v>56.666666666667</v>
       </c>
       <c r="BA2" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BB2" t="n">
-        <v>42.465753424658</v>
+        <v>42.063492063492</v>
       </c>
       <c r="BC2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BD2" t="n">
-        <v>38.297872340426</v>
+        <v>37.823834196891</v>
       </c>
       <c r="BE2" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BF2" t="n">
-        <v>46.892655367232</v>
+        <v>46.486486486486</v>
       </c>
       <c r="BG2" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="BH2" t="n">
         <v>55</v>
@@ -1206,7 +1206,7 @@
         <v>45</v>
       </c>
       <c r="BJ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK2" t="n">
         <v>3</v>
@@ -1221,28 +1221,28 @@
         <v>3</v>
       </c>
       <c r="BO2" t="n">
+        <v>26</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>168.6</v>
+      </c>
+      <c r="BR2" t="n">
         <v>25</v>
       </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>161.6</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>24</v>
-      </c>
       <c r="BS2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT2" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BW2" t="n">
         <v>1</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CA2" t="n">
         <v>11</v>
       </c>
       <c r="CB2" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="CC2" t="n">
         <v>16</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK2" t="n">
         <v>4</v>
@@ -1317,10 +1317,10 @@
         <v>6</v>
       </c>
       <c r="CU2" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="CV2" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>18</v>
       </c>
       <c r="DA2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DB2" t="n">
-        <v>63.636363636364</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="DG2" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>965009</v>
       </c>
       <c r="E3" t="n">
-        <v>6.5857142857143</v>
+        <v>6.6</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
         <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1409,13 +1409,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.6048</v>
+        <v>1.8178</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
@@ -1457,34 +1457,34 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.64061173</v>
+        <v>0.81044673</v>
       </c>
       <c r="AB3" t="n">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AF3" t="n">
-        <v>79.166666666667</v>
+        <v>80.314960629921</v>
       </c>
       <c r="AG3" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AJ3" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AK3" t="n">
         <v>8</v>
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="AN3" t="n">
-        <v>28.571428571429</v>
+        <v>26.666666666667</v>
       </c>
       <c r="AO3" t="n">
         <v>1</v>
@@ -1529,22 +1529,22 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>54.545454545455</v>
+        <v>54.166666666667</v>
       </c>
       <c r="BA3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BB3" t="n">
-        <v>46.739130434783</v>
+        <v>46.808510638298</v>
       </c>
       <c r="BC3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD3" t="n">
-        <v>46.153846153846</v>
+        <v>46.25</v>
       </c>
       <c r="BE3" t="n">
         <v>7</v>
@@ -1553,7 +1553,7 @@
         <v>50</v>
       </c>
       <c r="BG3" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BH3" t="n">
         <v>9</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>92.2</v>
+        <v>99</v>
       </c>
       <c r="BR3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CA3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CB3" t="n">
         <v>20</v>
       </c>
       <c r="CC3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CD3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CS3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CT3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CU3" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CV3" t="n">
         <v>7</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DG3" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2811,40 +2811,40 @@
         <v>934384</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0041666666667</v>
+        <v>7.052</v>
       </c>
       <c r="F7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" t="n">
         <v>24</v>
       </c>
-      <c r="G7" t="n">
-        <v>23</v>
-      </c>
       <c r="H7" t="n">
-        <v>1889</v>
+        <v>1979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8918</v>
+        <v>2.0528</v>
       </c>
       <c r="L7" t="n">
-        <v>944.5</v>
+        <v>659.66666666667</v>
       </c>
       <c r="M7" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>5.4054054054054</v>
+        <v>7.1428571428571</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2859,13 +2859,13 @@
         <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>1</v>
@@ -2877,67 +2877,67 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.70181287</v>
+        <v>2.79390237</v>
       </c>
       <c r="AB7" t="n">
-        <v>1247</v>
+        <v>1348</v>
       </c>
       <c r="AC7" t="n">
         <v>6</v>
       </c>
       <c r="AD7" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="n">
-        <v>766</v>
+        <v>837</v>
       </c>
       <c r="AF7" t="n">
-        <v>84.26842684268399</v>
+        <v>84.545454545455</v>
       </c>
       <c r="AG7" t="n">
-        <v>909</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="AI7" t="n">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="AJ7" t="n">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="AK7" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AL7" t="n">
-        <v>66.216216216216</v>
+        <v>67.81609195402299</v>
       </c>
       <c r="AM7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>23.880597014925</v>
+        <v>22.666666666667</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ7" t="n">
         <v>10</v>
       </c>
       <c r="AR7" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>11</v>
       </c>
       <c r="AZ7" t="n">
-        <v>36.666666666667</v>
+        <v>35.483870967742</v>
       </c>
       <c r="BA7" t="n">
+        <v>87</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>50.581395348837</v>
+      </c>
+      <c r="BC7" t="n">
         <v>84</v>
       </c>
-      <c r="BB7" t="n">
-        <v>50.299401197605</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>81</v>
-      </c>
       <c r="BD7" t="n">
-        <v>53.289473684211</v>
+        <v>53.503184713376</v>
       </c>
       <c r="BE7" t="n">
         <v>3</v>
@@ -2973,13 +2973,13 @@
         <v>20</v>
       </c>
       <c r="BG7" t="n">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="BH7" t="n">
         <v>12</v>
       </c>
       <c r="BI7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BJ7" t="n">
         <v>1</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>168.1</v>
+        <v>176.3</v>
       </c>
       <c r="BR7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT7" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3027,22 +3027,22 @@
         <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BZ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CA7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="CB7" t="n">
         <v>16</v>
       </c>
       <c r="CC7" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="CD7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CK7" t="n">
         <v>4</v>
@@ -3084,16 +3084,16 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CS7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CT7" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="CU7" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="CV7" t="n">
         <v>12</v>
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="DA7" t="n">
         <v>19</v>
       </c>
       <c r="DB7" t="n">
-        <v>73.07692307692299</v>
+        <v>70.37037037037</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="DG7" t="n">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>6.1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3184,12 +3184,14 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0.1135</v>
+      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -3225,265 +3227,265 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.00226517</v>
+        <v>0.13432917</v>
       </c>
       <c r="AB8" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>82.69230769230801</v>
       </c>
       <c r="AG8" t="n">
+        <v>52</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>39</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>8.3333333333333</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>21.428571428571</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>23.076923076923</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>27</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>5</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT8" t="n">
         <v>12</v>
       </c>
-      <c r="AH8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI8" t="n">
+      <c r="CU8" t="n">
+        <v>11</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>5</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>100</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
         <v>4</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>14.285714285714</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>14.285714285714</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>6</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>3</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>4</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF8" t="n">
-        <v>2</v>
-      </c>
       <c r="DG8" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3521,16 +3523,16 @@
         <v>876259</v>
       </c>
       <c r="E9" t="n">
-        <v>6.75</v>
+        <v>6.7923076923077</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3539,13 +3541,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2101</v>
+        <v>0.2528</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -3584,49 +3586,49 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.98907079</v>
+        <v>1.25062879</v>
       </c>
       <c r="AB9" t="n">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="AF9" t="n">
-        <v>82.708933717579</v>
+        <v>82.336956521739</v>
       </c>
       <c r="AG9" t="n">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="AH9" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AI9" t="n">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="AJ9" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>47.619047619048</v>
+        <v>47.727272727273</v>
       </c>
       <c r="AM9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN9" t="n">
-        <v>20.588235294118</v>
+        <v>21.052631578947</v>
       </c>
       <c r="AO9" t="n">
         <v>3</v>
@@ -3644,10 +3646,10 @@
         <v>4</v>
       </c>
       <c r="AT9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -3665,31 +3667,31 @@
         <v>28.571428571429</v>
       </c>
       <c r="BA9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB9" t="n">
-        <v>47.297297297297</v>
+        <v>47.435897435897</v>
       </c>
       <c r="BC9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD9" t="n">
-        <v>43.939393939394</v>
+        <v>43.478260869565</v>
       </c>
       <c r="BE9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF9" t="n">
-        <v>75</v>
+        <v>77.777777777778</v>
       </c>
       <c r="BG9" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="BH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI9" t="n">
         <v>16</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>15</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
@@ -3713,22 +3715,22 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>81</v>
+        <v>88.3</v>
       </c>
       <c r="BR9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>1</v>
       </c>
       <c r="CA9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CB9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CC9" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CD9" t="n">
         <v>16</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CS9" t="n">
         <v>7</v>
       </c>
       <c r="CT9" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="CU9" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CV9" t="n">
         <v>2</v>
@@ -3818,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="DA9" t="n">
         <v>7</v>
@@ -3836,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="DG9" t="n">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ9" t="n">
         <v>2263360</v>
@@ -3877,16 +3879,16 @@
         <v>1110136</v>
       </c>
       <c r="E10" t="n">
-        <v>6.9434782608696</v>
+        <v>6.9625</v>
       </c>
       <c r="F10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G10" t="n">
         <v>23</v>
       </c>
-      <c r="G10" t="n">
-        <v>22</v>
-      </c>
       <c r="H10" t="n">
-        <v>1893</v>
+        <v>1955</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3895,88 +3897,88 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2554</v>
+        <v>0.2956</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.26261566</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1091</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
         <v>10</v>
       </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.22918776</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1042</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
       <c r="AE10" t="n">
-        <v>640</v>
+        <v>678</v>
       </c>
       <c r="AF10" t="n">
-        <v>88.033012379642</v>
+        <v>88.28125</v>
       </c>
       <c r="AG10" t="n">
-        <v>727</v>
+        <v>768</v>
       </c>
       <c r="AH10" t="n">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AI10" t="n">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="AJ10" t="n">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL10" t="n">
-        <v>68.181818181818</v>
+        <v>68.888888888889</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -3985,25 +3987,25 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP10" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AQ10" t="n">
         <v>9</v>
       </c>
       <c r="AR10" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>17</v>
       </c>
       <c r="AU10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV10" t="n">
         <v>1</v>
@@ -4021,31 +4023,31 @@
         <v>60.526315789474</v>
       </c>
       <c r="BA10" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="BB10" t="n">
-        <v>63.725490196078</v>
+        <v>64.018691588785</v>
       </c>
       <c r="BC10" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="BD10" t="n">
-        <v>63.783783783784</v>
+        <v>64.210526315789</v>
       </c>
       <c r="BE10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BF10" t="n">
-        <v>63.157894736842</v>
+        <v>62.5</v>
       </c>
       <c r="BG10" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="BH10" t="n">
         <v>21</v>
       </c>
       <c r="BI10" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
@@ -4063,22 +4065,22 @@
         <v>7</v>
       </c>
       <c r="BO10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>159.7</v>
+        <v>167.1</v>
       </c>
       <c r="BR10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4099,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CB10" t="n">
         <v>20</v>
@@ -4126,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK10" t="n">
         <v>4</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CS10" t="n">
         <v>38</v>
@@ -4159,10 +4161,10 @@
         <v>3</v>
       </c>
       <c r="CU10" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="CV10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4174,13 +4176,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="DA10" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="DB10" t="n">
-        <v>61.111111111111</v>
+        <v>60.714285714286</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="DG10" t="n">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4233,16 +4235,16 @@
         <v>1004790</v>
       </c>
       <c r="E11" t="n">
-        <v>6.5545454545455</v>
+        <v>6.5333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
         <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>608</v>
+        <v>653</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4251,19 +4253,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9146</v>
+        <v>1.1147</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -4299,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.3937036</v>
+        <v>0.4228728</v>
       </c>
       <c r="AB11" t="n">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -4311,22 +4313,22 @@
         <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="AF11" t="n">
-        <v>79.605263157895</v>
+        <v>79.06976744185999</v>
       </c>
       <c r="AG11" t="n">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AI11" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="n">
         <v>3</v>
@@ -4335,10 +4337,10 @@
         <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>27.272727272727</v>
+        <v>30.769230769231</v>
       </c>
       <c r="AO11" t="n">
         <v>3</v>
@@ -4359,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -4374,19 +4376,19 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>38.461538461538</v>
+        <v>37.037037037037</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>41.538461538462</v>
+        <v>39.705882352941</v>
       </c>
       <c r="BC11" t="n">
         <v>26</v>
       </c>
       <c r="BD11" t="n">
-        <v>44.827586206897</v>
+        <v>42.622950819672</v>
       </c>
       <c r="BE11" t="n">
         <v>1</v>
@@ -4395,7 +4397,7 @@
         <v>14.285714285714</v>
       </c>
       <c r="BG11" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="BH11" t="n">
         <v>4</v>
@@ -4425,40 +4427,40 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>72.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="BR11" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>36</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>7</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="n">
         <v>11</v>
       </c>
-      <c r="BS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>31</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>6</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" t="n">
+      <c r="CA11" t="n">
         <v>8</v>
       </c>
-      <c r="CA11" t="n">
-        <v>6</v>
-      </c>
       <c r="CB11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CC11" t="n">
         <v>7</v>
@@ -4509,13 +4511,13 @@
         <v>5</v>
       </c>
       <c r="CS11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CT11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CU11" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="CV11" t="n">
         <v>6</v>
@@ -4548,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="DG11" t="n">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4944,13 +4946,13 @@
         <v>6.4533333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4962,7 +4964,7 @@
         <v>0.3159</v>
       </c>
       <c r="L13" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -5010,7 +5012,7 @@
         <v>0.12102684</v>
       </c>
       <c r="AB13" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5297,16 +5299,16 @@
         <v>957921</v>
       </c>
       <c r="E14" t="n">
-        <v>6.5173913043478</v>
+        <v>6.5125</v>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" t="n">
-        <v>1405</v>
+        <v>1475</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5318,7 +5320,7 @@
         <v>1.5636</v>
       </c>
       <c r="L14" t="n">
-        <v>1405</v>
+        <v>1475</v>
       </c>
       <c r="M14" t="n">
         <v>14</v>
@@ -5363,61 +5365,61 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.2956871</v>
+        <v>0.3229539</v>
       </c>
       <c r="AB14" t="n">
-        <v>606</v>
+        <v>653</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="AF14" t="n">
-        <v>81.887755102041</v>
+        <v>82.638888888889</v>
       </c>
       <c r="AG14" t="n">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="AH14" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AI14" t="n">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="AJ14" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
-        <v>44.444444444444</v>
+        <v>46.666666666667</v>
       </c>
       <c r="AM14" t="n">
         <v>1</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT14" t="n">
         <v>27</v>
@@ -5438,34 +5440,34 @@
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11.764705882353</v>
+        <v>11.111111111111</v>
       </c>
       <c r="BA14" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BB14" t="n">
-        <v>38.053097345133</v>
+        <v>38.135593220339</v>
       </c>
       <c r="BC14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BD14" t="n">
-        <v>38.75</v>
+        <v>39.285714285714</v>
       </c>
       <c r="BE14" t="n">
         <v>12</v>
       </c>
       <c r="BF14" t="n">
-        <v>36.363636363636</v>
+        <v>35.294117647059</v>
       </c>
       <c r="BG14" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="BH14" t="n">
         <v>12</v>
       </c>
       <c r="BI14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ14" t="n">
         <v>1</v>
@@ -5483,22 +5485,22 @@
         <v>2</v>
       </c>
       <c r="BO14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>149.9</v>
+        <v>156.3</v>
       </c>
       <c r="BR14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS14" t="n">
         <v>1</v>
       </c>
       <c r="BT14" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5525,10 +5527,10 @@
         <v>11</v>
       </c>
       <c r="CC14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="CD14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
@@ -5546,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK14" t="n">
         <v>3</v>
@@ -5570,37 +5572,37 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
+        <v>7</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>18</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>11</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>73</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>22</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>30</v>
+      </c>
+      <c r="DA14" t="n">
         <v>6</v>
       </c>
-      <c r="CS14" t="n">
-        <v>17</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>10</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>70</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>21</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>27</v>
-      </c>
-      <c r="DA14" t="n">
-        <v>5</v>
-      </c>
       <c r="DB14" t="n">
-        <v>33.333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5612,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="DG14" t="n">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -6721,16 +6723,16 @@
         <v>928103</v>
       </c>
       <c r="E18" t="n">
-        <v>6.7608695652174</v>
+        <v>6.7416666666667</v>
       </c>
       <c r="F18" t="n">
+        <v>24</v>
+      </c>
+      <c r="G18" t="n">
         <v>23</v>
       </c>
-      <c r="G18" t="n">
-        <v>22</v>
-      </c>
       <c r="H18" t="n">
-        <v>1943</v>
+        <v>2033</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6742,7 +6744,7 @@
         <v>1.8141</v>
       </c>
       <c r="L18" t="n">
-        <v>1943</v>
+        <v>2033</v>
       </c>
       <c r="M18" t="n">
         <v>14</v>
@@ -6787,49 +6789,49 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.5482565700000001</v>
+        <v>0.5766088700000001</v>
       </c>
       <c r="AB18" t="n">
-        <v>1136</v>
+        <v>1209</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
-        <v>681</v>
+        <v>737</v>
       </c>
       <c r="AF18" t="n">
-        <v>86.641221374046</v>
+        <v>86.910377358491</v>
       </c>
       <c r="AG18" t="n">
-        <v>786</v>
+        <v>848</v>
       </c>
       <c r="AH18" t="n">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="AI18" t="n">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="AJ18" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AK18" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
-        <v>38.541666666667</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
         <v>1</v>
       </c>
       <c r="AN18" t="n">
-        <v>12.5</v>
+        <v>11.111111111111</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
@@ -6838,13 +6840,13 @@
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AS18" t="n">
         <v>10</v>
       </c>
       <c r="AT18" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
@@ -6865,34 +6867,34 @@
         <v>50</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BB18" t="n">
-        <v>55.371900826446</v>
+        <v>54.4</v>
       </c>
       <c r="BC18" t="n">
         <v>41</v>
       </c>
       <c r="BD18" t="n">
-        <v>59.420289855072</v>
+        <v>58.571428571429</v>
       </c>
       <c r="BE18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BF18" t="n">
-        <v>50</v>
+        <v>49.090909090909</v>
       </c>
       <c r="BG18" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="BH18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI18" t="n">
         <v>10</v>
       </c>
       <c r="BJ18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK18" t="n">
         <v>4</v>
@@ -6907,22 +6909,22 @@
         <v>6</v>
       </c>
       <c r="BO18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>155.5</v>
+        <v>161.8</v>
       </c>
       <c r="BR18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS18" t="n">
         <v>1</v>
       </c>
       <c r="BT18" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6949,10 +6951,10 @@
         <v>2</v>
       </c>
       <c r="CC18" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="CD18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6970,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CK18" t="n">
         <v>4</v>
@@ -6994,19 +6996,19 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CS18" t="n">
         <v>6</v>
       </c>
       <c r="CT18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CU18" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="CV18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7018,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="DA18" t="n">
         <v>16</v>
@@ -7036,10 +7038,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="DG18" t="n">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="DH18" t="n">
         <v>9</v>
@@ -7077,16 +7079,16 @@
         <v>891346</v>
       </c>
       <c r="E19" t="n">
-        <v>6.85</v>
+        <v>6.847619047619</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>1492</v>
+        <v>1582</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7143,61 +7145,61 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.20212603</v>
+        <v>2.56208703</v>
       </c>
       <c r="AB19" t="n">
-        <v>927</v>
+        <v>1044</v>
       </c>
       <c r="AC19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AE19" t="n">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="AF19" t="n">
-        <v>69.57547169811301</v>
+        <v>72.46963562753</v>
       </c>
       <c r="AG19" t="n">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="AH19" t="n">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AI19" t="n">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="AJ19" t="n">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL19" t="n">
-        <v>46.875</v>
+        <v>47.692307692308</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AN19" t="n">
-        <v>22.516556291391</v>
+        <v>21.818181818182</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ19" t="n">
         <v>6</v>
       </c>
       <c r="AR19" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
         <v>24</v>
@@ -7218,19 +7220,19 @@
         <v>10</v>
       </c>
       <c r="AZ19" t="n">
-        <v>43.478260869565</v>
+        <v>40</v>
       </c>
       <c r="BA19" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BB19" t="n">
-        <v>47.794117647059</v>
+        <v>46.153846153846</v>
       </c>
       <c r="BC19" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BD19" t="n">
-        <v>50</v>
+        <v>47.933884297521</v>
       </c>
       <c r="BE19" t="n">
         <v>8</v>
@@ -7239,7 +7241,7 @@
         <v>36.363636363636</v>
       </c>
       <c r="BG19" t="n">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="BH19" t="n">
         <v>11</v>
@@ -7263,22 +7265,22 @@
         <v>5</v>
       </c>
       <c r="BO19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>137</v>
+        <v>143.8</v>
       </c>
       <c r="BR19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS19" t="n">
         <v>1</v>
       </c>
       <c r="BT19" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7302,10 +7304,10 @@
         <v>12</v>
       </c>
       <c r="CB19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CC19" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CD19" t="n">
         <v>24</v>
@@ -7326,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK19" t="n">
         <v>2</v>
@@ -7350,16 +7352,16 @@
         <v>0</v>
       </c>
       <c r="CR19" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="CS19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CT19" t="n">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="CU19" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CV19" t="n">
         <v>14</v>
@@ -7374,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="DA19" t="n">
         <v>22</v>
       </c>
       <c r="DB19" t="n">
-        <v>73.333333333333</v>
+        <v>70.967741935484</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7392,10 +7394,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="DG19" t="n">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7433,16 +7435,16 @@
         <v>1155423</v>
       </c>
       <c r="E20" t="n">
-        <v>7.1105263157895</v>
+        <v>7.12</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" t="n">
-        <v>1616</v>
+        <v>1706</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -7454,7 +7456,7 @@
         <v>0.5845</v>
       </c>
       <c r="L20" t="n">
-        <v>1616</v>
+        <v>1706</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
@@ -7499,40 +7501,40 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.34528303</v>
+        <v>0.39379263</v>
       </c>
       <c r="AB20" t="n">
-        <v>1130</v>
+        <v>1244</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>781</v>
+        <v>878</v>
       </c>
       <c r="AF20" t="n">
-        <v>86.777777777778</v>
+        <v>87.712287712288</v>
       </c>
       <c r="AG20" t="n">
-        <v>900</v>
+        <v>1001</v>
       </c>
       <c r="AH20" t="n">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="AI20" t="n">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="AJ20" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL20" t="n">
-        <v>53.398058252427</v>
+        <v>54.62962962963</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7544,19 +7546,19 @@
         <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AS20" t="n">
         <v>3</v>
       </c>
       <c r="AT20" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AU20" t="n">
         <v>1</v>
@@ -7568,46 +7570,46 @@
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA20" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="BB20" t="n">
-        <v>60.144927536232</v>
+        <v>61.744966442953</v>
       </c>
       <c r="BC20" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BD20" t="n">
-        <v>62.264150943396</v>
+        <v>65.573770491803</v>
       </c>
       <c r="BE20" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BF20" t="n">
-        <v>58.823529411765</v>
+        <v>59.090909090909</v>
       </c>
       <c r="BG20" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="BH20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
       </c>
       <c r="BK20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL20" t="n">
         <v>0</v>
@@ -7619,22 +7621,22 @@
         <v>7</v>
       </c>
       <c r="BO20" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="BR20" t="n">
         <v>20</v>
       </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>135.1</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>19</v>
-      </c>
       <c r="BS20" t="n">
         <v>1</v>
       </c>
       <c r="BT20" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7661,7 +7663,7 @@
         <v>2</v>
       </c>
       <c r="CC20" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CD20" t="n">
         <v>29</v>
@@ -7682,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK20" t="n">
         <v>3</v>
@@ -7706,19 +7708,19 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CS20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT20" t="n">
         <v>2</v>
       </c>
       <c r="CU20" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CV20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7730,13 +7732,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="DA20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DB20" t="n">
-        <v>63.636363636364</v>
+        <v>60</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7748,10 +7750,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>603</v>
+        <v>642</v>
       </c>
       <c r="DG20" t="n">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="DH20" t="n">
         <v>3</v>
@@ -7789,16 +7791,16 @@
         <v>958517</v>
       </c>
       <c r="E21" t="n">
-        <v>6.8470588235294</v>
+        <v>6.8388888888889</v>
       </c>
       <c r="F21" t="n">
+        <v>18</v>
+      </c>
+      <c r="G21" t="n">
         <v>17</v>
       </c>
-      <c r="G21" t="n">
-        <v>16</v>
-      </c>
       <c r="H21" t="n">
-        <v>1487</v>
+        <v>1532</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -7807,13 +7809,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3819</v>
+        <v>0.4203</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N21" t="n">
         <v>3</v>
@@ -7855,40 +7857,40 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.4391281</v>
+        <v>0.4563016</v>
       </c>
       <c r="AB21" t="n">
-        <v>1029</v>
+        <v>1097</v>
       </c>
       <c r="AC21" t="n">
         <v>3</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>522</v>
+        <v>575</v>
       </c>
       <c r="AF21" t="n">
-        <v>75.872093023256</v>
+        <v>76.974564926372</v>
       </c>
       <c r="AG21" t="n">
-        <v>688</v>
+        <v>747</v>
       </c>
       <c r="AH21" t="n">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="AI21" t="n">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="AJ21" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="AK21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="n">
-        <v>27.692307692308</v>
+        <v>27.941176470588</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -7897,7 +7899,7 @@
         <v>5.2631578947368</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
         <v>37</v>
@@ -7912,10 +7914,10 @@
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AU21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -7933,37 +7935,37 @@
         <v>54.545454545455</v>
       </c>
       <c r="BA21" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BB21" t="n">
-        <v>57.746478873239</v>
+        <v>57.534246575342</v>
       </c>
       <c r="BC21" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BD21" t="n">
-        <v>62.222222222222</v>
+        <v>61.95652173913</v>
       </c>
       <c r="BE21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BF21" t="n">
         <v>50</v>
       </c>
       <c r="BG21" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="BH21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BI21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
       </c>
       <c r="BK21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL21" t="n">
         <v>0</v>
@@ -7975,52 +7977,52 @@
         <v>5</v>
       </c>
       <c r="BO21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>116.4</v>
+        <v>123.1</v>
       </c>
       <c r="BR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
       </c>
       <c r="BV21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ21" t="n">
         <v>3</v>
       </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>2</v>
-      </c>
       <c r="CA21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CB21" t="n">
         <v>6</v>
       </c>
       <c r="CC21" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="CD21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8038,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK21" t="n">
         <v>2</v>
@@ -8062,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CS21" t="n">
         <v>11</v>
@@ -8071,10 +8073,10 @@
         <v>19</v>
       </c>
       <c r="CU21" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="CV21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8086,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="DA21" t="n">
         <v>23</v>
@@ -8104,10 +8106,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="DG21" t="n">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="DH21" t="n">
         <v>15</v>
@@ -8145,16 +8147,16 @@
         <v>1963449</v>
       </c>
       <c r="E22" t="n">
-        <v>6.565</v>
+        <v>6.6</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
-        <v>1484</v>
+        <v>1574</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8163,16 +8165,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3696</v>
+        <v>0.4205</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -8211,52 +8213,52 @@
         <v>2</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.8933428</v>
+        <v>1.1751868</v>
       </c>
       <c r="AB22" t="n">
-        <v>745</v>
+        <v>790</v>
       </c>
       <c r="AC22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="AF22" t="n">
-        <v>75.519630484988</v>
+        <v>76.0348583878</v>
       </c>
       <c r="AG22" t="n">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="AH22" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AI22" t="n">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="AJ22" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="n">
         <v>12</v>
       </c>
       <c r="AL22" t="n">
-        <v>42.857142857143</v>
+        <v>41.379310344828</v>
       </c>
       <c r="AM22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN22" t="n">
-        <v>22.857142857143</v>
+        <v>23.076923076923</v>
       </c>
       <c r="AO22" t="n">
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
         <v>6</v>
@@ -8265,7 +8267,7 @@
         <v>55</v>
       </c>
       <c r="AS22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT22" t="n">
         <v>32</v>
@@ -8289,16 +8291,16 @@
         <v>54.545454545455</v>
       </c>
       <c r="BA22" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="BB22" t="n">
-        <v>44.961240310078</v>
+        <v>46.268656716418</v>
       </c>
       <c r="BC22" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="BD22" t="n">
-        <v>45.794392523364</v>
+        <v>47.321428571429</v>
       </c>
       <c r="BE22" t="n">
         <v>9</v>
@@ -8307,13 +8309,13 @@
         <v>40.909090909091</v>
       </c>
       <c r="BG22" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="BH22" t="n">
         <v>14</v>
       </c>
       <c r="BI22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
@@ -8331,22 +8333,22 @@
         <v>6</v>
       </c>
       <c r="BO22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>131.3</v>
+        <v>138.6</v>
       </c>
       <c r="BR22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS22" t="n">
         <v>2</v>
       </c>
       <c r="BT22" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8367,7 +8369,7 @@
         <v>4</v>
       </c>
       <c r="CA22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CB22" t="n">
         <v>15</v>
@@ -8394,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK22" t="n">
         <v>3</v>
@@ -8418,16 +8420,16 @@
         <v>0</v>
       </c>
       <c r="CR22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CS22" t="n">
         <v>11</v>
       </c>
       <c r="CT22" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="CU22" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CV22" t="n">
         <v>13</v>
@@ -8442,13 +8444,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="DA22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DB22" t="n">
-        <v>55.555555555556</v>
+        <v>55.172413793103</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8460,10 +8462,10 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="DG22" t="n">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
@@ -8857,16 +8859,16 @@
         <v>990411</v>
       </c>
       <c r="E24" t="n">
-        <v>6.9</v>
+        <v>6.8615384615385</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="n">
-        <v>1080</v>
+        <v>1170</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8921,10 +8923,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.011938</v>
+        <v>0.01205444</v>
       </c>
       <c r="AB24" t="n">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8933,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AF24" t="n">
-        <v>75.616438356164</v>
+        <v>75.58441558441601</v>
       </c>
       <c r="AG24" t="n">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="AH24" t="n">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="AI24" t="n">
         <v>34</v>
@@ -8951,10 +8953,10 @@
         <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL24" t="n">
-        <v>37.410071942446</v>
+        <v>36.986301369863</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8972,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
@@ -9017,7 +9019,7 @@
         <v>100</v>
       </c>
       <c r="BG24" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
@@ -9041,22 +9043,22 @@
         <v>4</v>
       </c>
       <c r="BO24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>82.8</v>
+        <v>89.2</v>
       </c>
       <c r="BR24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9095,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="CG24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CH24" t="n">
         <v>24</v>
@@ -9104,7 +9106,7 @@
         <v>9</v>
       </c>
       <c r="CJ24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK24" t="n">
         <v>0</v>
@@ -9152,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9170,13 +9172,13 @@
         <v>13</v>
       </c>
       <c r="DF24" t="n">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="DG24" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="DH24" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9190,7 +9192,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>2.5516</v>
+        <v>2.5026</v>
       </c>
     </row>
     <row r="25">
